--- a/Introducción a los Sistemas Operativos/Trabajos Prácticos/IaSO-Guia-de-Trabajos-Practicos.xlsx
+++ b/Introducción a los Sistemas Operativos/Trabajos Prácticos/IaSO-Guia-de-Trabajos-Practicos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="33">
   <si>
     <t xml:space="preserve">a) Prioridades (No Apropitativo). </t>
   </si>
@@ -61,13 +61,72 @@
   </si>
   <si>
     <t xml:space="preserve">b) Shortest Process Next (No Apropiativo). </t>
+  </si>
+  <si>
+    <t>Comienza en
+tiempo</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>E/S</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Duración</t>
+  </si>
+  <si>
+    <t>Prioridad</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCESADOR IDDLE </t>
+  </si>
+  <si>
+    <t>SPN</t>
+  </si>
+  <si>
+    <t>CPU
+Total</t>
+  </si>
+  <si>
+    <t>Automático</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Revisar. No sé si está bien¿?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,8 +148,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,6 +180,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -149,6 +247,37 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,10 +632,10 @@
       <c r="S3" s="7">
         <v>18</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="12">
         <v>19</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="12">
         <v>20</v>
       </c>
       <c r="V3" s="7">
@@ -611,8 +740,8 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
@@ -659,10 +788,10 @@
       <c r="S5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="U5" s="7" t="s">
+      <c r="T5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="V5" s="7" t="s">
@@ -729,10 +858,10 @@
       <c r="S6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="U6" s="7" t="s">
+      <c r="T6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="U6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="V6" s="7" t="s">
@@ -787,10 +916,10 @@
       <c r="S7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="T7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="U7" s="7" t="s">
+      <c r="T7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="V7" s="7"/>
@@ -865,8 +994,8 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
@@ -893,13 +1022,6 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -910,13 +1032,6 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -928,6 +1043,30 @@
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="P11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -936,6 +1075,28 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE12" s="20"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -950,6 +1111,34 @@
       <c r="D13" t="s">
         <v>3</v>
       </c>
+      <c r="P13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20">
+        <v>3</v>
+      </c>
+      <c r="AE13" s="20"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -964,6 +1153,34 @@
       <c r="D14" t="s">
         <v>3</v>
       </c>
+      <c r="P14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20">
+        <v>3</v>
+      </c>
+      <c r="AE14" s="20"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -981,8 +1198,36 @@
       <c r="E15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="P15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20">
+        <v>5</v>
+      </c>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="20"/>
+    </row>
+    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>6</v>
       </c>
@@ -995,8 +1240,36 @@
       <c r="D16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20">
+        <v>4</v>
+      </c>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20">
+        <v>5</v>
+      </c>
+      <c r="AE16" s="20"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>7</v>
       </c>
@@ -1009,8 +1282,36 @@
       <c r="D17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20">
+        <v>3</v>
+      </c>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20">
+        <v>3</v>
+      </c>
+      <c r="AE17" s="20"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>8</v>
       </c>
@@ -1027,7 +1328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>9</v>
       </c>
@@ -1041,7 +1342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>10</v>
       </c>
@@ -1058,7 +1359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>11</v>
       </c>
@@ -1075,7 +1376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>12</v>
       </c>
@@ -1089,7 +1390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>13</v>
       </c>
@@ -1103,7 +1404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>14</v>
       </c>
@@ -1117,7 +1418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>15</v>
       </c>
@@ -1128,7 +1429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>16</v>
       </c>
@@ -1139,7 +1440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>17</v>
       </c>
@@ -1147,29 +1448,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>18</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>19</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>20</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>21</v>
       </c>
@@ -1180,7 +1489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>22</v>
       </c>
@@ -1250,6 +1559,63 @@
       <c r="A42" t="s">
         <v>13</v>
       </c>
+      <c r="J42" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="25"/>
+      <c r="AD42" s="25"/>
+      <c r="AE42" s="25"/>
+      <c r="AF42" s="25"/>
+      <c r="AG42" s="25"/>
+      <c r="AH42" s="25"/>
+      <c r="AI42" s="25"/>
+      <c r="AJ42" s="25"/>
+      <c r="AK42" s="25"/>
+      <c r="AL42" s="25"/>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="25"/>
+      <c r="AG43" s="25"/>
+      <c r="AH43" s="25"/>
+      <c r="AI43" s="25"/>
+      <c r="AJ43" s="25"/>
+      <c r="AK43" s="25"/>
+      <c r="AL43" s="25"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
@@ -1398,20 +1764,7 @@
       <c r="H45" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
+      <c r="I45" s="7"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
@@ -1422,22 +1775,30 @@
       <c r="V45" s="7"/>
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="6"/>
-      <c r="AD45" s="6"/>
-      <c r="AE45" s="6"/>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6"/>
-      <c r="AH45" s="6"/>
-      <c r="AI45" s="6"/>
-      <c r="AJ45" s="6"/>
-      <c r="AK45" s="6"/>
-      <c r="AL45" s="6"/>
-      <c r="AM45" s="6"/>
-      <c r="AN45" s="6"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7"/>
+      <c r="AK45" s="7"/>
+      <c r="AL45" s="7"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
@@ -1449,59 +1810,59 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
+      <c r="H46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="R46" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S46" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="T46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="U46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="V46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="W46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC46" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD46" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE46" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AF46" s="6"/>
-      <c r="AG46" s="6"/>
-      <c r="AH46" s="6"/>
-      <c r="AI46" s="6"/>
-      <c r="AJ46" s="6"/>
-      <c r="AK46" s="6"/>
-      <c r="AL46" s="6"/>
-      <c r="AM46" s="6"/>
-      <c r="AN46" s="6"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="7"/>
+      <c r="AJ46" s="7"/>
+      <c r="AK46" s="7"/>
+      <c r="AL46" s="7"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
@@ -1511,59 +1872,59 @@
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
+      <c r="F47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="O47" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R47" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="S47" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T47" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="U47" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="V47" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
-      <c r="AA47" s="6"/>
-      <c r="AB47" s="6"/>
-      <c r="AC47" s="6"/>
-      <c r="AD47" s="6"/>
-      <c r="AE47" s="6"/>
-      <c r="AF47" s="6"/>
-      <c r="AG47" s="6"/>
-      <c r="AH47" s="6"/>
-      <c r="AI47" s="6"/>
-      <c r="AJ47" s="6"/>
-      <c r="AK47" s="6"/>
-      <c r="AL47" s="6"/>
-      <c r="AM47" s="6"/>
-      <c r="AN47" s="6"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
+      <c r="AJ47" s="7"/>
+      <c r="AK47" s="7"/>
+      <c r="AL47" s="7"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
@@ -1577,59 +1938,59 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
+      <c r="J48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
-      <c r="Q48" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="Q48" s="7"/>
       <c r="R48" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S48" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T48" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U48" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="V48" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="V48" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="W48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="X48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB48" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="6"/>
-      <c r="AE48" s="6"/>
-      <c r="AF48" s="6"/>
-      <c r="AG48" s="6"/>
-      <c r="AH48" s="6"/>
-      <c r="AI48" s="6"/>
-      <c r="AJ48" s="6"/>
-      <c r="AK48" s="6"/>
-      <c r="AL48" s="6"/>
-      <c r="AM48" s="6"/>
-      <c r="AN48" s="6"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="7"/>
+      <c r="AK48" s="7"/>
+      <c r="AL48" s="7"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
@@ -1639,22 +2000,14 @@
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="L49" s="7" t="s">
         <v>7</v>
       </c>
@@ -1662,10 +2015,10 @@
         <v>7</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
@@ -1674,31 +2027,44 @@
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
-      <c r="W49" s="7"/>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
-      <c r="AA49" s="6"/>
-      <c r="AB49" s="6"/>
-      <c r="AC49" s="6"/>
-      <c r="AD49" s="6"/>
-      <c r="AE49" s="6"/>
-      <c r="AF49" s="6"/>
-      <c r="AG49" s="6"/>
-      <c r="AH49" s="6"/>
-      <c r="AI49" s="6"/>
-      <c r="AJ49" s="6"/>
-      <c r="AK49" s="6"/>
-      <c r="AL49" s="6"/>
-      <c r="AM49" s="6"/>
-      <c r="AN49" s="6"/>
+      <c r="W49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="X49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="P51" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+    </row>
+    <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>1</v>
       </c>
@@ -1708,6 +2074,35 @@
       <c r="C52" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="P52" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="T52" s="18"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="20"/>
+      <c r="AC52" s="20"/>
+      <c r="AD52" s="20"/>
+      <c r="AE52" s="20"/>
+      <c r="AF52" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG52" s="18"/>
+      <c r="AH52" s="18"/>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
@@ -1716,19 +2111,81 @@
       <c r="B53" t="s">
         <v>3</v>
       </c>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
+      <c r="Z53" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA53" s="20"/>
+      <c r="AB53" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC53" s="20"/>
+      <c r="AD53" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE53" s="20"/>
+      <c r="AF53" s="18"/>
+      <c r="AG53" s="18"/>
+      <c r="AH53" s="18"/>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>3</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="21">
+        <f>SUM(Z54,AD54)</f>
+        <v>7</v>
+      </c>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="20">
+        <v>4</v>
+      </c>
+      <c r="AA54" s="20"/>
+      <c r="AB54" s="20">
+        <v>3</v>
+      </c>
+      <c r="AC54" s="20"/>
+      <c r="AD54" s="20">
+        <v>3</v>
+      </c>
+      <c r="AE54" s="20"/>
+      <c r="AF54" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG54" s="20"/>
+      <c r="AH54" s="20"/>
+      <c r="AI54" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.25">
@@ -1736,30 +2193,104 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="P55" s="21">
+        <f t="shared" ref="P55:P58" si="0">SUM(Z55,AD55)</f>
+        <v>5</v>
+      </c>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="W55" s="20"/>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="20">
+        <v>2</v>
+      </c>
+      <c r="AA55" s="20"/>
+      <c r="AB55" s="20">
+        <v>4</v>
+      </c>
+      <c r="AC55" s="20"/>
+      <c r="AD55" s="20">
+        <v>3</v>
+      </c>
+      <c r="AE55" s="20"/>
+      <c r="AF55" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG55" s="20"/>
+      <c r="AH55" s="20"/>
+      <c r="AI55" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>5</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" t="s">
-        <v>3</v>
+      <c r="P56" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="20">
+        <v>2</v>
+      </c>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="20">
+        <v>5</v>
+      </c>
+      <c r="AC56" s="20"/>
+      <c r="AD56" s="20">
+        <v>1</v>
+      </c>
+      <c r="AE56" s="20"/>
+      <c r="AF56" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG56" s="20"/>
+      <c r="AH56" s="20"/>
+      <c r="AI56" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.25">
@@ -1767,145 +2298,693 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
       </c>
-      <c r="D57" t="s">
-        <v>3</v>
+      <c r="D57" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P57" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="W57" s="20"/>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="20"/>
+      <c r="Z57" s="20">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="20"/>
+      <c r="AB57" s="20">
+        <v>4</v>
+      </c>
+      <c r="AC57" s="20"/>
+      <c r="AD57" s="20">
+        <v>5</v>
+      </c>
+      <c r="AE57" s="20"/>
+      <c r="AF57" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG57" s="20"/>
+      <c r="AH57" s="20"/>
+      <c r="AI57" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>7</v>
       </c>
-      <c r="B58" t="s">
-        <v>9</v>
+      <c r="B58" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
       </c>
-      <c r="D58" t="s">
-        <v>3</v>
+      <c r="D58" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P58" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T58" s="20"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="W58" s="20"/>
+      <c r="X58" s="20"/>
+      <c r="Y58" s="20"/>
+      <c r="Z58" s="20">
+        <v>3</v>
+      </c>
+      <c r="AA58" s="20"/>
+      <c r="AB58" s="20">
+        <v>2</v>
+      </c>
+      <c r="AC58" s="20"/>
+      <c r="AD58" s="20">
+        <v>3</v>
+      </c>
+      <c r="AE58" s="20"/>
+      <c r="AF58" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG58" s="20"/>
+      <c r="AH58" s="20"/>
+      <c r="AI58" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>9</v>
       </c>
+      <c r="B60" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="P60" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="T60" s="18"/>
+      <c r="U60" s="18"/>
+      <c r="V60" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="W60" s="19"/>
+      <c r="X60" s="19"/>
+      <c r="Y60" s="19"/>
+      <c r="Z60" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA60" s="20"/>
+      <c r="AB60" s="20"/>
+      <c r="AC60" s="20"/>
+      <c r="AD60" s="20"/>
+      <c r="AE60" s="20"/>
+      <c r="AF60" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG60" s="18"/>
+      <c r="AH60" s="18"/>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>10</v>
       </c>
+      <c r="B61" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="18"/>
+      <c r="T61" s="18"/>
+      <c r="U61" s="18"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="19"/>
+      <c r="Z61" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA61" s="20"/>
+      <c r="AB61" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC61" s="20"/>
+      <c r="AD61" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE61" s="20"/>
+      <c r="AF61" s="18"/>
+      <c r="AG61" s="18"/>
+      <c r="AH61" s="18"/>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>11</v>
       </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="P62" s="21">
+        <f>SUM(Z62,AD62)</f>
+        <v>7</v>
+      </c>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="W62" s="20"/>
+      <c r="X62" s="20"/>
+      <c r="Y62" s="20"/>
+      <c r="Z62" s="20">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="20"/>
+      <c r="AB62" s="20">
+        <v>3</v>
+      </c>
+      <c r="AC62" s="20"/>
+      <c r="AD62" s="20">
+        <v>3</v>
+      </c>
+      <c r="AE62" s="20"/>
+      <c r="AF62" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG62" s="20"/>
+      <c r="AH62" s="20"/>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>12</v>
       </c>
+      <c r="B63" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="P63" s="21">
+        <f t="shared" ref="P63:P66" si="1">SUM(Z63,AD63)</f>
+        <v>5</v>
+      </c>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="W63" s="20"/>
+      <c r="X63" s="20"/>
+      <c r="Y63" s="20"/>
+      <c r="Z63" s="20">
+        <v>2</v>
+      </c>
+      <c r="AA63" s="20"/>
+      <c r="AB63" s="20">
+        <v>4</v>
+      </c>
+      <c r="AC63" s="20"/>
+      <c r="AD63" s="20">
+        <v>3</v>
+      </c>
+      <c r="AE63" s="20"/>
+      <c r="AF63" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG63" s="20"/>
+      <c r="AH63" s="20"/>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="P64" s="21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="W64" s="20"/>
+      <c r="X64" s="20"/>
+      <c r="Y64" s="20"/>
+      <c r="Z64" s="20">
+        <v>2</v>
+      </c>
+      <c r="AA64" s="20"/>
+      <c r="AB64" s="20">
+        <v>5</v>
+      </c>
+      <c r="AC64" s="20"/>
+      <c r="AD64" s="20">
+        <v>1</v>
+      </c>
+      <c r="AE64" s="20"/>
+      <c r="AF64" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG64" s="20"/>
+      <c r="AH64" s="20"/>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+      <c r="P65" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="W65" s="20"/>
+      <c r="X65" s="20"/>
+      <c r="Y65" s="20"/>
+      <c r="Z65" s="20">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="20"/>
+      <c r="AB65" s="20">
+        <v>4</v>
+      </c>
+      <c r="AC65" s="20"/>
+      <c r="AD65" s="20">
+        <v>5</v>
+      </c>
+      <c r="AE65" s="20"/>
+      <c r="AF65" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG65" s="20"/>
+      <c r="AH65" s="20"/>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="P66" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="20">
+        <v>3</v>
+      </c>
+      <c r="AA66" s="20"/>
+      <c r="AB66" s="20">
+        <v>2</v>
+      </c>
+      <c r="AC66" s="20"/>
+      <c r="AD66" s="20">
+        <v>3</v>
+      </c>
+      <c r="AE66" s="20"/>
+      <c r="AF66" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG66" s="20"/>
+      <c r="AH66" s="20"/>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" s="10"/>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
-        <v>29</v>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80">
+        <f>A79</f>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
-        <v>30</v>
-      </c>
+      <c r="A81" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="125">
+    <mergeCell ref="AF66:AH66"/>
+    <mergeCell ref="N42:AL43"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AA66"/>
+    <mergeCell ref="AB66:AC66"/>
+    <mergeCell ref="AD66:AE66"/>
+    <mergeCell ref="AF64:AH64"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:Y65"/>
+    <mergeCell ref="Z65:AA65"/>
+    <mergeCell ref="AB65:AC65"/>
+    <mergeCell ref="AD65:AE65"/>
+    <mergeCell ref="AF65:AH65"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:Y64"/>
+    <mergeCell ref="Z64:AA64"/>
+    <mergeCell ref="AB64:AC64"/>
+    <mergeCell ref="AD64:AE64"/>
+    <mergeCell ref="AF62:AH62"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V63:Y63"/>
+    <mergeCell ref="Z63:AA63"/>
+    <mergeCell ref="AB63:AC63"/>
+    <mergeCell ref="AD63:AE63"/>
+    <mergeCell ref="AF63:AH63"/>
+    <mergeCell ref="AF60:AH61"/>
+    <mergeCell ref="Z61:AA61"/>
+    <mergeCell ref="AB61:AC61"/>
+    <mergeCell ref="AD61:AE61"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:Y62"/>
+    <mergeCell ref="Z62:AA62"/>
+    <mergeCell ref="AB62:AC62"/>
+    <mergeCell ref="AD62:AE62"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="P60:R61"/>
+    <mergeCell ref="S60:U61"/>
+    <mergeCell ref="V60:Y61"/>
+    <mergeCell ref="Z60:AE60"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P52:R53"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:Y58"/>
+    <mergeCell ref="Z58:AA58"/>
+    <mergeCell ref="AB58:AC58"/>
+    <mergeCell ref="AD58:AE58"/>
+    <mergeCell ref="AF58:AH58"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:Y57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AC57"/>
+    <mergeCell ref="AD57:AE57"/>
+    <mergeCell ref="AF57:AH57"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:Y56"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="AB56:AC56"/>
+    <mergeCell ref="AD56:AE56"/>
+    <mergeCell ref="AF56:AH56"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:Y55"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="AB55:AC55"/>
+    <mergeCell ref="AD55:AE55"/>
+    <mergeCell ref="AF55:AH55"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:Y54"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="AD54:AE54"/>
+    <mergeCell ref="AF54:AH54"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S52:U53"/>
+    <mergeCell ref="V52:Y53"/>
+    <mergeCell ref="Z52:AE52"/>
+    <mergeCell ref="AF52:AH53"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="AD53:AE53"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="P11:R12"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="V11:Y12"/>
+    <mergeCell ref="S11:U12"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="V15:Y15"/>
+    <mergeCell ref="V16:Y16"/>
+    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="Z11:AE11"/>
+    <mergeCell ref="Z13:AA13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Introducción a los Sistemas Operativos/Trabajos Prácticos/IaSO-Guia-de-Trabajos-Practicos.xlsx
+++ b/Introducción a los Sistemas Operativos/Trabajos Prácticos/IaSO-Guia-de-Trabajos-Practicos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="34">
   <si>
     <t xml:space="preserve">a) Prioridades (No Apropitativo). </t>
   </si>
@@ -121,6 +121,9 @@
   <si>
     <t>Revisar. No sé si está bien¿?</t>
   </si>
+  <si>
+    <t xml:space="preserve">c) Shortest Remaining Time (Apropitativo). </t>
+  </si>
 </sst>
 </file>
 
@@ -170,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +201,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,18 +275,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -275,9 +284,45 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN81"/>
+  <dimension ref="A1:AN124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +710,7 @@
       <c r="AD3" s="7">
         <v>29</v>
       </c>
-      <c r="AE3" s="7">
+      <c r="AE3" s="36">
         <v>30</v>
       </c>
       <c r="AF3" s="7">
@@ -751,7 +796,7 @@
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
+      <c r="AE4" s="37"/>
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
@@ -813,7 +858,7 @@
       <c r="AD5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AE5" s="7" t="s">
+      <c r="AE5" s="36" t="s">
         <v>10</v>
       </c>
       <c r="AF5" s="6"/>
@@ -877,7 +922,7 @@
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
+      <c r="AE6" s="37"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
@@ -943,7 +988,7 @@
       </c>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
+      <c r="AE7" s="37"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
@@ -1005,7 +1050,7 @@
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
+      <c r="AE8" s="37"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
@@ -1043,30 +1088,30 @@
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="P11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18" t="s">
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="19" t="s">
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="20" t="s">
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1075,28 +1120,28 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="20" t="s">
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20" t="s">
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20" t="s">
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AE12" s="20"/>
+      <c r="AE12" s="21"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1111,34 +1156,34 @@
       <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="P13" s="20" t="s">
+      <c r="P13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20" t="s">
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20">
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21">
         <v>4</v>
       </c>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20">
-        <v>3</v>
-      </c>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20">
-        <v>3</v>
-      </c>
-      <c r="AE13" s="20"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21">
+        <v>3</v>
+      </c>
+      <c r="AE13" s="21"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1153,34 +1198,34 @@
       <c r="D14" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="20" t="s">
+      <c r="P14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20" t="s">
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20">
-        <v>2</v>
-      </c>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20">
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21">
         <v>4</v>
       </c>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20">
-        <v>3</v>
-      </c>
-      <c r="AE14" s="20"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21">
+        <v>3</v>
+      </c>
+      <c r="AE14" s="21"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -1198,34 +1243,34 @@
       <c r="E15" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="P15" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20" t="s">
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20" t="s">
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20">
-        <v>2</v>
-      </c>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20">
-        <v>5</v>
-      </c>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20">
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21">
+        <v>5</v>
+      </c>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21">
         <v>1</v>
       </c>
-      <c r="AE15" s="20"/>
+      <c r="AE15" s="21"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1240,34 +1285,34 @@
       <c r="D16" t="s">
         <v>3</v>
       </c>
-      <c r="P16" s="20" t="s">
+      <c r="P16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20" t="s">
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20">
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21">
         <v>1</v>
       </c>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20">
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21">
         <v>4</v>
       </c>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20">
-        <v>5</v>
-      </c>
-      <c r="AE16" s="20"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21">
+        <v>5</v>
+      </c>
+      <c r="AE16" s="21"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -1282,34 +1327,34 @@
       <c r="D17" t="s">
         <v>3</v>
       </c>
-      <c r="P17" s="20" t="s">
+      <c r="P17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20" t="s">
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20" t="s">
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20">
-        <v>3</v>
-      </c>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20">
-        <v>2</v>
-      </c>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20">
-        <v>3</v>
-      </c>
-      <c r="AE17" s="20"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21">
+        <v>3</v>
+      </c>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21">
+        <v>3</v>
+      </c>
+      <c r="AE17" s="21"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -1555,292 +1600,232 @@
         <v>11</v>
       </c>
     </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="34">
+        <f>A40</f>
+        <v>30</v>
+      </c>
+    </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="15" t="s">
+      <c r="J43" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="N42" s="25" t="s">
+      <c r="N43" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="25"/>
-      <c r="V42" s="25"/>
-      <c r="W42" s="25"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="25"/>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="25"/>
-      <c r="AD42" s="25"/>
-      <c r="AE42" s="25"/>
-      <c r="AF42" s="25"/>
-      <c r="AG42" s="25"/>
-      <c r="AH42" s="25"/>
-      <c r="AI42" s="25"/>
-      <c r="AJ42" s="25"/>
-      <c r="AK42" s="25"/>
-      <c r="AL42" s="25"/>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="25"/>
-      <c r="AA43" s="25"/>
-      <c r="AB43" s="25"/>
-      <c r="AC43" s="25"/>
-      <c r="AD43" s="25"/>
-      <c r="AE43" s="25"/>
-      <c r="AF43" s="25"/>
-      <c r="AG43" s="25"/>
-      <c r="AH43" s="25"/>
-      <c r="AI43" s="25"/>
-      <c r="AJ43" s="25"/>
-      <c r="AK43" s="25"/>
-      <c r="AL43" s="25"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="22"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="22"/>
+      <c r="AF43" s="22"/>
+      <c r="AG43" s="22"/>
+      <c r="AH43" s="22"/>
+      <c r="AI43" s="22"/>
+      <c r="AJ43" s="22"/>
+      <c r="AK43" s="22"/>
+      <c r="AL43" s="22"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="7">
-        <v>1</v>
-      </c>
-      <c r="C44" s="7">
-        <v>2</v>
-      </c>
-      <c r="D44" s="7">
-        <v>3</v>
-      </c>
-      <c r="E44" s="7">
-        <v>4</v>
-      </c>
-      <c r="F44" s="7">
-        <v>5</v>
-      </c>
-      <c r="G44" s="7">
-        <v>6</v>
-      </c>
-      <c r="H44" s="7">
-        <v>7</v>
-      </c>
-      <c r="I44" s="7">
-        <v>8</v>
-      </c>
-      <c r="J44" s="7">
-        <v>9</v>
-      </c>
-      <c r="K44" s="7">
-        <v>10</v>
-      </c>
-      <c r="L44" s="7">
-        <v>11</v>
-      </c>
-      <c r="M44" s="7">
-        <v>12</v>
-      </c>
-      <c r="N44" s="7">
-        <v>13</v>
-      </c>
-      <c r="O44" s="7">
-        <v>14</v>
-      </c>
-      <c r="P44" s="7">
-        <v>15</v>
-      </c>
-      <c r="Q44" s="7">
-        <v>16</v>
-      </c>
-      <c r="R44" s="7">
-        <v>17</v>
-      </c>
-      <c r="S44" s="7">
-        <v>18</v>
-      </c>
-      <c r="T44" s="7">
-        <v>19</v>
-      </c>
-      <c r="U44" s="7">
-        <v>20</v>
-      </c>
-      <c r="V44" s="7">
-        <v>21</v>
-      </c>
-      <c r="W44" s="7">
-        <v>22</v>
-      </c>
-      <c r="X44" s="7">
-        <v>23</v>
-      </c>
-      <c r="Y44" s="7">
-        <v>24</v>
-      </c>
-      <c r="Z44" s="7">
-        <v>25</v>
-      </c>
-      <c r="AA44" s="7">
-        <v>26</v>
-      </c>
-      <c r="AB44" s="7">
-        <v>27</v>
-      </c>
-      <c r="AC44" s="7">
-        <v>28</v>
-      </c>
-      <c r="AD44" s="7">
-        <v>29</v>
-      </c>
-      <c r="AE44" s="7">
-        <v>30</v>
-      </c>
-      <c r="AF44" s="7">
-        <v>31</v>
-      </c>
-      <c r="AG44" s="7">
-        <v>32</v>
-      </c>
-      <c r="AH44" s="7">
-        <v>33</v>
-      </c>
-      <c r="AI44" s="7">
-        <v>34</v>
-      </c>
-      <c r="AJ44" s="7">
-        <v>35</v>
-      </c>
-      <c r="AK44" s="7">
-        <v>36</v>
-      </c>
-      <c r="AL44" s="7">
-        <v>37</v>
-      </c>
-      <c r="AM44" s="7">
-        <v>38</v>
-      </c>
-      <c r="AN44" s="7">
-        <v>39</v>
-      </c>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="22"/>
+      <c r="AC44" s="22"/>
+      <c r="AD44" s="22"/>
+      <c r="AE44" s="22"/>
+      <c r="AF44" s="22"/>
+      <c r="AG44" s="22"/>
+      <c r="AH44" s="22"/>
+      <c r="AI44" s="22"/>
+      <c r="AJ44" s="22"/>
+      <c r="AK44" s="22"/>
+      <c r="AL44" s="22"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="7">
+        <v>1</v>
+      </c>
+      <c r="C45" s="7">
+        <v>2</v>
+      </c>
+      <c r="D45" s="7">
+        <v>3</v>
+      </c>
+      <c r="E45" s="7">
+        <v>4</v>
+      </c>
+      <c r="F45" s="7">
+        <v>5</v>
+      </c>
+      <c r="G45" s="7">
+        <v>6</v>
+      </c>
+      <c r="H45" s="7">
+        <v>7</v>
+      </c>
+      <c r="I45" s="7">
+        <v>8</v>
+      </c>
+      <c r="J45" s="7">
+        <v>9</v>
+      </c>
+      <c r="K45" s="7">
         <v>10</v>
       </c>
-      <c r="AD45" s="7"/>
-      <c r="AE45" s="7"/>
-      <c r="AF45" s="7"/>
-      <c r="AG45" s="7"/>
-      <c r="AH45" s="7"/>
-      <c r="AI45" s="7"/>
-      <c r="AJ45" s="7"/>
-      <c r="AK45" s="7"/>
-      <c r="AL45" s="7"/>
-      <c r="AM45" s="7"/>
-      <c r="AN45" s="7"/>
+      <c r="L45" s="7">
+        <v>11</v>
+      </c>
+      <c r="M45" s="7">
+        <v>12</v>
+      </c>
+      <c r="N45" s="7">
+        <v>13</v>
+      </c>
+      <c r="O45" s="7">
+        <v>14</v>
+      </c>
+      <c r="P45" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>16</v>
+      </c>
+      <c r="R45" s="7">
+        <v>17</v>
+      </c>
+      <c r="S45" s="7">
+        <v>18</v>
+      </c>
+      <c r="T45" s="7">
+        <v>19</v>
+      </c>
+      <c r="U45" s="7">
+        <v>20</v>
+      </c>
+      <c r="V45" s="7">
+        <v>21</v>
+      </c>
+      <c r="W45" s="7">
+        <v>22</v>
+      </c>
+      <c r="X45" s="7">
+        <v>23</v>
+      </c>
+      <c r="Y45" s="7">
+        <v>24</v>
+      </c>
+      <c r="Z45" s="7">
+        <v>25</v>
+      </c>
+      <c r="AA45" s="7">
+        <v>26</v>
+      </c>
+      <c r="AB45" s="7">
+        <v>27</v>
+      </c>
+      <c r="AC45" s="36">
+        <v>28</v>
+      </c>
+      <c r="AD45" s="7">
+        <v>29</v>
+      </c>
+      <c r="AE45" s="7">
+        <v>30</v>
+      </c>
+      <c r="AF45" s="7">
+        <v>31</v>
+      </c>
+      <c r="AG45" s="7">
+        <v>32</v>
+      </c>
+      <c r="AH45" s="7">
+        <v>33</v>
+      </c>
+      <c r="AI45" s="7">
+        <v>34</v>
+      </c>
+      <c r="AJ45" s="7">
+        <v>35</v>
+      </c>
+      <c r="AK45" s="7">
+        <v>36</v>
+      </c>
+      <c r="AL45" s="7">
+        <v>37</v>
+      </c>
+      <c r="AM45" s="7">
+        <v>38</v>
+      </c>
+      <c r="AN45" s="7">
+        <v>39</v>
+      </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="H46" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R46" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -1848,10 +1833,18 @@
       <c r="W46" s="7"/>
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
-      <c r="Z46" s="7"/>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="7"/>
-      <c r="AC46" s="7"/>
+      <c r="Z46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC46" s="36" t="s">
+        <v>10</v>
+      </c>
       <c r="AD46" s="7"/>
       <c r="AE46" s="7"/>
       <c r="AF46" s="7"/>
@@ -1866,23 +1859,19 @@
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
       <c r="H47" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>8</v>
@@ -1893,16 +1882,22 @@
       <c r="L47" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="M47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="7"/>
       <c r="O47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
@@ -1913,7 +1908,7 @@
       <c r="Z47" s="7"/>
       <c r="AA47" s="7"/>
       <c r="AB47" s="7"/>
-      <c r="AC47" s="7"/>
+      <c r="AC47" s="36"/>
       <c r="AD47" s="7"/>
       <c r="AE47" s="7"/>
       <c r="AF47" s="7"/>
@@ -1928,18 +1923,26 @@
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="F48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="J48" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>8</v>
@@ -1947,39 +1950,27 @@
       <c r="L48" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="M48" s="7"/>
       <c r="N48" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
-      <c r="R48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="T48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="V48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W48" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
       <c r="AB48" s="7"/>
-      <c r="AC48" s="7"/>
+      <c r="AC48" s="36"/>
       <c r="AD48" s="7"/>
       <c r="AE48" s="7"/>
       <c r="AF48" s="7"/>
@@ -1994,7 +1985,7 @@
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2004,44 +1995,48 @@
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
+      <c r="J49" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="K49" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="O49" s="7"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
+      <c r="R49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V49" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="W49" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="X49" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y49" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z49" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
-      <c r="AC49" s="7"/>
+      <c r="AC49" s="36"/>
       <c r="AD49" s="7"/>
       <c r="AE49" s="7"/>
       <c r="AF49" s="7"/>
@@ -2054,901 +2049,1986 @@
       <c r="AM49" s="7"/>
       <c r="AN49" s="7"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="X50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="36"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>12</v>
       </c>
-      <c r="P51" s="16" t="s">
+      <c r="P52" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-    </row>
-    <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+    </row>
+    <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
         <v>1</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="17" t="s">
+      <c r="B53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P53" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="18" t="s">
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T52" s="18"/>
-      <c r="U52" s="18"/>
-      <c r="V52" s="19" t="s">
+      <c r="T53" s="24"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="W52" s="19"/>
-      <c r="X52" s="19"/>
-      <c r="Y52" s="19"/>
-      <c r="Z52" s="20" t="s">
+      <c r="W53" s="26"/>
+      <c r="X53" s="26"/>
+      <c r="Y53" s="26"/>
+      <c r="Z53" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AA52" s="20"/>
-      <c r="AB52" s="20"/>
-      <c r="AC52" s="20"/>
-      <c r="AD52" s="20"/>
-      <c r="AE52" s="20"/>
-      <c r="AF52" s="18" t="s">
+      <c r="AA53" s="21"/>
+      <c r="AB53" s="21"/>
+      <c r="AC53" s="21"/>
+      <c r="AD53" s="21"/>
+      <c r="AE53" s="21"/>
+      <c r="AF53" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AG52" s="18"/>
-      <c r="AH52" s="18"/>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="18"/>
-      <c r="V53" s="19"/>
-      <c r="W53" s="19"/>
-      <c r="X53" s="19"/>
-      <c r="Y53" s="19"/>
-      <c r="Z53" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA53" s="20"/>
-      <c r="AB53" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC53" s="20"/>
-      <c r="AD53" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE53" s="20"/>
-      <c r="AF53" s="18"/>
-      <c r="AG53" s="18"/>
-      <c r="AH53" s="18"/>
+      <c r="AG53" s="24"/>
+      <c r="AH53" s="24"/>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>3</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="21">
-        <f>SUM(Z54,AD54)</f>
-        <v>7</v>
-      </c>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="W54" s="20"/>
-      <c r="X54" s="20"/>
-      <c r="Y54" s="20"/>
-      <c r="Z54" s="20">
-        <v>4</v>
-      </c>
-      <c r="AA54" s="20"/>
-      <c r="AB54" s="20">
-        <v>3</v>
-      </c>
-      <c r="AC54" s="20"/>
-      <c r="AD54" s="20">
-        <v>3</v>
-      </c>
-      <c r="AE54" s="20"/>
-      <c r="AF54" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG54" s="20"/>
-      <c r="AH54" s="20"/>
-      <c r="AI54" t="s">
-        <v>30</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="24"/>
+      <c r="U54" s="24"/>
+      <c r="V54" s="26"/>
+      <c r="W54" s="26"/>
+      <c r="X54" s="26"/>
+      <c r="Y54" s="26"/>
+      <c r="Z54" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA54" s="21"/>
+      <c r="AB54" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC54" s="21"/>
+      <c r="AD54" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE54" s="21"/>
+      <c r="AF54" s="24"/>
+      <c r="AG54" s="24"/>
+      <c r="AH54" s="24"/>
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
+        <v>3</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P55" s="23">
+        <f>SUM(Z55,AD55)</f>
+        <v>7</v>
+      </c>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21">
         <v>4</v>
       </c>
-      <c r="C55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" t="s">
-        <v>5</v>
-      </c>
-      <c r="P55" s="21">
-        <f t="shared" ref="P55:P58" si="0">SUM(Z55,AD55)</f>
-        <v>5</v>
-      </c>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="T55" s="20"/>
-      <c r="U55" s="20"/>
-      <c r="V55" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="W55" s="20"/>
-      <c r="X55" s="20"/>
-      <c r="Y55" s="20"/>
-      <c r="Z55" s="20">
-        <v>2</v>
-      </c>
-      <c r="AA55" s="20"/>
-      <c r="AB55" s="20">
-        <v>4</v>
-      </c>
-      <c r="AC55" s="20"/>
-      <c r="AD55" s="20">
-        <v>3</v>
-      </c>
-      <c r="AE55" s="20"/>
-      <c r="AF55" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG55" s="20"/>
-      <c r="AH55" s="20"/>
+      <c r="AA55" s="21"/>
+      <c r="AB55" s="21">
+        <v>3</v>
+      </c>
+      <c r="AC55" s="21"/>
+      <c r="AD55" s="21">
+        <v>3</v>
+      </c>
+      <c r="AE55" s="21"/>
+      <c r="AF55" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG55" s="21"/>
+      <c r="AH55" s="21"/>
       <c r="AI55" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>5</v>
-      </c>
-      <c r="B56" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
       <c r="C56" t="s">
         <v>3</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="P56" s="21">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="20" t="s">
+      <c r="P56" s="23">
+        <f t="shared" ref="P56:P59" si="0">SUM(Z56,AD56)</f>
+        <v>5</v>
+      </c>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="23"/>
+      <c r="S56" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="21">
+        <v>2</v>
+      </c>
+      <c r="AA56" s="21"/>
+      <c r="AB56" s="21">
         <v>4</v>
       </c>
-      <c r="T56" s="20"/>
-      <c r="U56" s="20"/>
-      <c r="V56" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="W56" s="20"/>
-      <c r="X56" s="20"/>
-      <c r="Y56" s="20"/>
-      <c r="Z56" s="20">
-        <v>2</v>
-      </c>
-      <c r="AA56" s="20"/>
-      <c r="AB56" s="20">
-        <v>5</v>
-      </c>
-      <c r="AC56" s="20"/>
-      <c r="AD56" s="20">
-        <v>1</v>
-      </c>
-      <c r="AE56" s="20"/>
-      <c r="AF56" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG56" s="20"/>
-      <c r="AH56" s="20"/>
+      <c r="AC56" s="21"/>
+      <c r="AD56" s="21">
+        <v>3</v>
+      </c>
+      <c r="AE56" s="21"/>
+      <c r="AF56" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG56" s="21"/>
+      <c r="AH56" s="21"/>
       <c r="AI56" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
+        <v>5</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="23" t="s">
+      <c r="P57" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="23"/>
+      <c r="S57" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="21"/>
+      <c r="U57" s="21"/>
+      <c r="V57" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W57" s="21"/>
+      <c r="X57" s="21"/>
+      <c r="Y57" s="21"/>
+      <c r="Z57" s="21">
+        <v>2</v>
+      </c>
+      <c r="AA57" s="21"/>
+      <c r="AB57" s="21">
+        <v>5</v>
+      </c>
+      <c r="AC57" s="21"/>
+      <c r="AD57" s="21">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="21"/>
+      <c r="AF57" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG57" s="21"/>
+      <c r="AH57" s="21"/>
+      <c r="AI57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
         <v>6</v>
       </c>
-      <c r="P57" s="21">
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="P58" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="21"/>
-      <c r="S57" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="20"/>
-      <c r="U57" s="20"/>
-      <c r="V57" s="20" t="s">
+      <c r="Q58" s="23"/>
+      <c r="R58" s="23"/>
+      <c r="S58" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W57" s="20"/>
-      <c r="X57" s="20"/>
-      <c r="Y57" s="20"/>
-      <c r="Z57" s="20">
+      <c r="W58" s="21"/>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="21"/>
+      <c r="Z58" s="21">
         <v>1</v>
       </c>
-      <c r="AA57" s="20"/>
-      <c r="AB57" s="20">
+      <c r="AA58" s="21"/>
+      <c r="AB58" s="21">
         <v>4</v>
       </c>
-      <c r="AC57" s="20"/>
-      <c r="AD57" s="20">
-        <v>5</v>
-      </c>
-      <c r="AE57" s="20"/>
-      <c r="AF57" s="20" t="s">
+      <c r="AC58" s="21"/>
+      <c r="AD58" s="21">
+        <v>5</v>
+      </c>
+      <c r="AE58" s="21"/>
+      <c r="AF58" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AG57" s="20"/>
-      <c r="AH57" s="20"/>
-      <c r="AI57" t="s">
+      <c r="AG58" s="21"/>
+      <c r="AH58" s="21"/>
+      <c r="AI58" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>7</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="23" t="s">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>7</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="P58" s="21">
+      <c r="P59" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="20" t="s">
+      <c r="Q59" s="23"/>
+      <c r="R59" s="23"/>
+      <c r="S59" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="T58" s="20"/>
-      <c r="U58" s="20"/>
-      <c r="V58" s="20" t="s">
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="W58" s="20"/>
-      <c r="X58" s="20"/>
-      <c r="Y58" s="20"/>
-      <c r="Z58" s="20">
-        <v>3</v>
-      </c>
-      <c r="AA58" s="20"/>
-      <c r="AB58" s="20">
-        <v>2</v>
-      </c>
-      <c r="AC58" s="20"/>
-      <c r="AD58" s="20">
-        <v>3</v>
-      </c>
-      <c r="AE58" s="20"/>
-      <c r="AF58" s="20" t="s">
+      <c r="W59" s="21"/>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="21">
+        <v>3</v>
+      </c>
+      <c r="AA59" s="21"/>
+      <c r="AB59" s="21">
+        <v>2</v>
+      </c>
+      <c r="AC59" s="21"/>
+      <c r="AD59" s="21">
+        <v>3</v>
+      </c>
+      <c r="AE59" s="21"/>
+      <c r="AF59" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AG58" s="20"/>
-      <c r="AH58" s="20"/>
-      <c r="AI58" t="s">
+      <c r="AG59" s="21"/>
+      <c r="AH59" s="21"/>
+      <c r="AI59" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>8</v>
-      </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>9</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D60" t="s">
-        <v>2</v>
-      </c>
-      <c r="P60" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="17"/>
-      <c r="S60" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="T60" s="18"/>
-      <c r="U60" s="18"/>
-      <c r="V60" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="W60" s="19"/>
-      <c r="X60" s="19"/>
-      <c r="Y60" s="19"/>
-      <c r="Z60" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA60" s="20"/>
-      <c r="AB60" s="20"/>
-      <c r="AC60" s="20"/>
-      <c r="AD60" s="20"/>
-      <c r="AE60" s="20"/>
-      <c r="AF60" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG60" s="18"/>
-      <c r="AH60" s="18"/>
+      <c r="D60" s="9" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <v>10</v>
-      </c>
-      <c r="B61" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
         <v>6</v>
       </c>
-      <c r="C61" t="s">
-        <v>2</v>
-      </c>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
-      <c r="R61" s="17"/>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="18"/>
-      <c r="V61" s="19"/>
-      <c r="W61" s="19"/>
-      <c r="X61" s="19"/>
-      <c r="Y61" s="19"/>
-      <c r="Z61" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA61" s="20"/>
-      <c r="AB61" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC61" s="20"/>
-      <c r="AD61" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE61" s="20"/>
-      <c r="AF61" s="18"/>
-      <c r="AG61" s="18"/>
-      <c r="AH61" s="18"/>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>11</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2</v>
-      </c>
-      <c r="P62" s="21">
-        <f>SUM(Z62,AD62)</f>
-        <v>7</v>
-      </c>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="T62" s="20"/>
-      <c r="U62" s="20"/>
-      <c r="V62" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="W62" s="20"/>
-      <c r="X62" s="20"/>
-      <c r="Y62" s="20"/>
-      <c r="Z62" s="20">
-        <v>4</v>
-      </c>
-      <c r="AA62" s="20"/>
-      <c r="AB62" s="20">
-        <v>3</v>
-      </c>
-      <c r="AC62" s="20"/>
-      <c r="AD62" s="20">
-        <v>3</v>
-      </c>
-      <c r="AE62" s="20"/>
-      <c r="AF62" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG62" s="20"/>
-      <c r="AH62" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>12</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2</v>
-      </c>
-      <c r="P63" s="21">
-        <f t="shared" ref="P63:P66" si="1">SUM(Z63,AD63)</f>
-        <v>5</v>
-      </c>
-      <c r="Q63" s="21"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="T63" s="20"/>
-      <c r="U63" s="20"/>
-      <c r="V63" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="W63" s="20"/>
-      <c r="X63" s="20"/>
-      <c r="Y63" s="20"/>
-      <c r="Z63" s="20">
-        <v>2</v>
-      </c>
-      <c r="AA63" s="20"/>
-      <c r="AB63" s="20">
-        <v>4</v>
-      </c>
-      <c r="AC63" s="20"/>
-      <c r="AD63" s="20">
-        <v>3</v>
-      </c>
-      <c r="AE63" s="20"/>
-      <c r="AF63" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG63" s="20"/>
-      <c r="AH63" s="20"/>
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
+        <v>12</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>13</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B65" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" t="s">
-        <v>2</v>
-      </c>
-      <c r="P64" s="21">
+      <c r="C65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>14</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>17</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>19</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>22</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>23</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>24</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>25</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>26</v>
+      </c>
+      <c r="B78" s="10"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>28</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" s="14">
+        <f>A80</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+    </row>
+    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="16">
+        <v>1</v>
+      </c>
+      <c r="C85" s="16">
+        <v>2</v>
+      </c>
+      <c r="D85" s="16">
+        <v>3</v>
+      </c>
+      <c r="E85" s="16">
+        <v>4</v>
+      </c>
+      <c r="F85" s="16">
+        <v>5</v>
+      </c>
+      <c r="G85" s="16">
+        <v>6</v>
+      </c>
+      <c r="H85" s="16">
+        <v>7</v>
+      </c>
+      <c r="I85" s="16">
+        <v>8</v>
+      </c>
+      <c r="J85" s="16">
+        <v>9</v>
+      </c>
+      <c r="K85" s="16">
+        <v>10</v>
+      </c>
+      <c r="L85" s="16">
+        <v>11</v>
+      </c>
+      <c r="M85" s="16">
+        <v>12</v>
+      </c>
+      <c r="N85" s="16">
+        <v>13</v>
+      </c>
+      <c r="O85" s="16">
+        <v>14</v>
+      </c>
+      <c r="P85" s="16">
+        <v>15</v>
+      </c>
+      <c r="Q85" s="16">
+        <v>16</v>
+      </c>
+      <c r="R85" s="16">
+        <v>17</v>
+      </c>
+      <c r="S85" s="16">
+        <v>18</v>
+      </c>
+      <c r="T85" s="28">
+        <v>19</v>
+      </c>
+      <c r="U85" s="28">
+        <v>20</v>
+      </c>
+      <c r="V85" s="16">
+        <v>21</v>
+      </c>
+      <c r="W85" s="16">
+        <v>22</v>
+      </c>
+      <c r="X85" s="16">
+        <v>23</v>
+      </c>
+      <c r="Y85" s="16">
+        <v>24</v>
+      </c>
+      <c r="Z85" s="17">
+        <v>25</v>
+      </c>
+      <c r="AA85" s="17">
+        <v>26</v>
+      </c>
+      <c r="AB85" s="17">
+        <v>27</v>
+      </c>
+      <c r="AC85" s="16">
+        <v>28</v>
+      </c>
+      <c r="AD85" s="16">
+        <v>29</v>
+      </c>
+      <c r="AE85" s="16">
+        <v>30</v>
+      </c>
+      <c r="AF85" s="36">
+        <v>31</v>
+      </c>
+      <c r="AG85" s="16">
+        <v>32</v>
+      </c>
+      <c r="AH85" s="16">
+        <v>33</v>
+      </c>
+      <c r="AI85" s="16">
+        <v>34</v>
+      </c>
+      <c r="AJ85" s="16">
+        <v>35</v>
+      </c>
+      <c r="AK85" s="16">
+        <v>36</v>
+      </c>
+      <c r="AL85" s="16">
+        <v>37</v>
+      </c>
+      <c r="AM85" s="16">
+        <v>38</v>
+      </c>
+      <c r="AN85" s="16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="16"/>
+      <c r="Q86" s="16"/>
+      <c r="R86" s="16"/>
+      <c r="S86" s="16"/>
+      <c r="T86" s="28"/>
+      <c r="U86" s="28"/>
+      <c r="V86" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="W86" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="X86" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y86" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z86" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA86" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB86" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC86" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD86" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE86" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF86" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG86" s="16"/>
+      <c r="AH86" s="16"/>
+      <c r="AI86" s="16"/>
+      <c r="AJ86" s="16"/>
+      <c r="AK86" s="16"/>
+      <c r="AL86" s="16"/>
+      <c r="AM86" s="16"/>
+      <c r="AN86" s="16"/>
+    </row>
+    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K87" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L87" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M87" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
+      <c r="P87" s="16"/>
+      <c r="Q87" s="16"/>
+      <c r="R87" s="16"/>
+      <c r="S87" s="16"/>
+      <c r="T87" s="28"/>
+      <c r="U87" s="28"/>
+      <c r="V87" s="16"/>
+      <c r="W87" s="16"/>
+      <c r="X87" s="16"/>
+      <c r="Y87" s="16"/>
+      <c r="Z87" s="17"/>
+      <c r="AA87" s="17"/>
+      <c r="AB87" s="17"/>
+      <c r="AC87" s="16"/>
+      <c r="AD87" s="16"/>
+      <c r="AE87" s="16"/>
+      <c r="AF87" s="36"/>
+      <c r="AG87" s="16"/>
+      <c r="AH87" s="16"/>
+      <c r="AI87" s="16"/>
+      <c r="AJ87" s="16"/>
+      <c r="AK87" s="16"/>
+      <c r="AL87" s="16"/>
+      <c r="AM87" s="16"/>
+      <c r="AN87" s="16"/>
+    </row>
+    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I88" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J88" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N88" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O88" s="16"/>
+      <c r="P88" s="16"/>
+      <c r="Q88" s="16"/>
+      <c r="R88" s="16"/>
+      <c r="S88" s="16"/>
+      <c r="T88" s="28"/>
+      <c r="U88" s="28"/>
+      <c r="V88" s="16"/>
+      <c r="W88" s="16"/>
+      <c r="X88" s="16"/>
+      <c r="Y88" s="16"/>
+      <c r="Z88" s="17"/>
+      <c r="AA88" s="17"/>
+      <c r="AB88" s="17"/>
+      <c r="AC88" s="16"/>
+      <c r="AD88" s="16"/>
+      <c r="AE88" s="16"/>
+      <c r="AF88" s="36"/>
+      <c r="AG88" s="16"/>
+      <c r="AH88" s="16"/>
+      <c r="AI88" s="16"/>
+      <c r="AJ88" s="16"/>
+      <c r="AK88" s="16"/>
+      <c r="AL88" s="16"/>
+      <c r="AM88" s="16"/>
+      <c r="AN88" s="16"/>
+    </row>
+    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="16"/>
+      <c r="Q89" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="R89" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="S89" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="T89" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="U89" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="V89" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="W89" s="16"/>
+      <c r="X89" s="16"/>
+      <c r="Y89" s="16"/>
+      <c r="Z89" s="17"/>
+      <c r="AA89" s="17"/>
+      <c r="AB89" s="17"/>
+      <c r="AC89" s="16"/>
+      <c r="AD89" s="16"/>
+      <c r="AE89" s="16"/>
+      <c r="AF89" s="36"/>
+      <c r="AG89" s="16"/>
+      <c r="AH89" s="16"/>
+      <c r="AI89" s="16"/>
+      <c r="AJ89" s="16"/>
+      <c r="AK89" s="16"/>
+      <c r="AL89" s="16"/>
+      <c r="AM89" s="16"/>
+      <c r="AN89" s="16"/>
+    </row>
+    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J90" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K90" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L90" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M90" s="16"/>
+      <c r="N90" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O90" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="P90" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q90" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R90" s="16"/>
+      <c r="S90" s="16"/>
+      <c r="T90" s="28"/>
+      <c r="U90" s="28"/>
+      <c r="V90" s="16"/>
+      <c r="W90" s="16"/>
+      <c r="X90" s="16"/>
+      <c r="Y90" s="16"/>
+      <c r="Z90" s="17"/>
+      <c r="AA90" s="17"/>
+      <c r="AB90" s="17"/>
+      <c r="AC90" s="16"/>
+      <c r="AD90" s="16"/>
+      <c r="AE90" s="16"/>
+      <c r="AF90" s="36"/>
+      <c r="AG90" s="16"/>
+      <c r="AH90" s="16"/>
+      <c r="AI90" s="16"/>
+      <c r="AJ90" s="16"/>
+      <c r="AK90" s="16"/>
+      <c r="AL90" s="16"/>
+      <c r="AM90" s="16"/>
+      <c r="AN90" s="16"/>
+    </row>
+    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+    </row>
+    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+    </row>
+    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <v>1</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q93" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="R93" s="25"/>
+      <c r="S93" s="25"/>
+      <c r="T93" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="U93" s="24"/>
+      <c r="V93" s="24"/>
+      <c r="W93" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="X93" s="26"/>
+      <c r="Y93" s="26"/>
+      <c r="Z93" s="26"/>
+      <c r="AA93" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB93" s="21"/>
+      <c r="AC93" s="21"/>
+      <c r="AD93" s="21"/>
+      <c r="AE93" s="21"/>
+      <c r="AF93" s="21"/>
+      <c r="AG93" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH93" s="24"/>
+      <c r="AI93" s="24"/>
+    </row>
+    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>2</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q94" s="25"/>
+      <c r="R94" s="25"/>
+      <c r="S94" s="25"/>
+      <c r="T94" s="24"/>
+      <c r="U94" s="24"/>
+      <c r="V94" s="24"/>
+      <c r="W94" s="26"/>
+      <c r="X94" s="26"/>
+      <c r="Y94" s="26"/>
+      <c r="Z94" s="26"/>
+      <c r="AA94" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB94" s="21"/>
+      <c r="AC94" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD94" s="21"/>
+      <c r="AE94" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF94" s="21"/>
+      <c r="AG94" s="24"/>
+      <c r="AH94" s="24"/>
+      <c r="AI94" s="24"/>
+    </row>
+    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
+        <v>3</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q95" s="23">
+        <f>SUM(AA95,AE95)</f>
+        <v>7</v>
+      </c>
+      <c r="R95" s="23"/>
+      <c r="S95" s="23"/>
+      <c r="T95" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U95" s="21"/>
+      <c r="V95" s="21"/>
+      <c r="W95" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="X95" s="21"/>
+      <c r="Y95" s="21"/>
+      <c r="Z95" s="21"/>
+      <c r="AA95" s="21">
+        <v>4</v>
+      </c>
+      <c r="AB95" s="21"/>
+      <c r="AC95" s="21">
+        <v>3</v>
+      </c>
+      <c r="AD95" s="21"/>
+      <c r="AE95" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF95" s="21"/>
+      <c r="AG95" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH95" s="21"/>
+      <c r="AI95" s="21"/>
+    </row>
+    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q96" s="23">
+        <f t="shared" ref="Q96:Q99" si="1">SUM(AA96,AE96)</f>
+        <v>5</v>
+      </c>
+      <c r="R96" s="23"/>
+      <c r="S96" s="23"/>
+      <c r="T96" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="U96" s="21"/>
+      <c r="V96" s="21"/>
+      <c r="W96" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="X96" s="21"/>
+      <c r="Y96" s="21"/>
+      <c r="Z96" s="21"/>
+      <c r="AA96" s="21">
+        <v>2</v>
+      </c>
+      <c r="AB96" s="21"/>
+      <c r="AC96" s="21">
+        <v>4</v>
+      </c>
+      <c r="AD96" s="21"/>
+      <c r="AE96" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF96" s="21"/>
+      <c r="AG96" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH96" s="21"/>
+      <c r="AI96" s="21"/>
+    </row>
+    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
+        <v>5</v>
+      </c>
+      <c r="B97" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q97" s="23">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="20" t="s">
+      <c r="R97" s="23"/>
+      <c r="S97" s="23"/>
+      <c r="T97" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="T64" s="20"/>
-      <c r="U64" s="20"/>
-      <c r="V64" s="20" t="s">
+      <c r="U97" s="21"/>
+      <c r="V97" s="21"/>
+      <c r="W97" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W64" s="20"/>
-      <c r="X64" s="20"/>
-      <c r="Y64" s="20"/>
-      <c r="Z64" s="20">
-        <v>2</v>
-      </c>
-      <c r="AA64" s="20"/>
-      <c r="AB64" s="20">
-        <v>5</v>
-      </c>
-      <c r="AC64" s="20"/>
-      <c r="AD64" s="20">
+      <c r="X97" s="21"/>
+      <c r="Y97" s="21"/>
+      <c r="Z97" s="21"/>
+      <c r="AA97" s="21">
+        <v>2</v>
+      </c>
+      <c r="AB97" s="21"/>
+      <c r="AC97" s="21">
+        <v>5</v>
+      </c>
+      <c r="AD97" s="21"/>
+      <c r="AE97" s="21">
         <v>1</v>
       </c>
-      <c r="AE64" s="20"/>
-      <c r="AF64" s="20" t="s">
+      <c r="AF97" s="21"/>
+      <c r="AG97" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AG64" s="20"/>
-      <c r="AH64" s="20"/>
-    </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
-        <v>14</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" t="s">
-        <v>2</v>
-      </c>
-      <c r="P65" s="21">
+      <c r="AH97" s="21"/>
+      <c r="AI97" s="21"/>
+    </row>
+    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
+        <v>6</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q98" s="23">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="T65" s="20"/>
-      <c r="U65" s="20"/>
-      <c r="V65" s="20" t="s">
+      <c r="R98" s="23"/>
+      <c r="S98" s="23"/>
+      <c r="T98" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="U98" s="21"/>
+      <c r="V98" s="21"/>
+      <c r="W98" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W65" s="20"/>
-      <c r="X65" s="20"/>
-      <c r="Y65" s="20"/>
-      <c r="Z65" s="20">
+      <c r="X98" s="21"/>
+      <c r="Y98" s="21"/>
+      <c r="Z98" s="21"/>
+      <c r="AA98" s="21">
         <v>1</v>
       </c>
-      <c r="AA65" s="20"/>
-      <c r="AB65" s="20">
+      <c r="AB98" s="21"/>
+      <c r="AC98" s="21">
         <v>4</v>
       </c>
-      <c r="AC65" s="20"/>
-      <c r="AD65" s="20">
-        <v>5</v>
-      </c>
-      <c r="AE65" s="20"/>
-      <c r="AF65" s="20" t="s">
+      <c r="AD98" s="21"/>
+      <c r="AE98" s="21">
+        <v>5</v>
+      </c>
+      <c r="AF98" s="21"/>
+      <c r="AG98" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AG65" s="20"/>
-      <c r="AH65" s="20"/>
-    </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
-        <v>15</v>
-      </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" t="s">
-        <v>2</v>
-      </c>
-      <c r="P66" s="21">
+      <c r="AH98" s="21"/>
+      <c r="AI98" s="21"/>
+    </row>
+    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
+        <v>7</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q99" s="23">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="20" t="s">
+      <c r="R99" s="23"/>
+      <c r="S99" s="23"/>
+      <c r="T99" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="T66" s="20"/>
-      <c r="U66" s="20"/>
-      <c r="V66" s="20" t="s">
+      <c r="U99" s="21"/>
+      <c r="V99" s="21"/>
+      <c r="W99" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="W66" s="20"/>
-      <c r="X66" s="20"/>
-      <c r="Y66" s="20"/>
-      <c r="Z66" s="20">
-        <v>3</v>
-      </c>
-      <c r="AA66" s="20"/>
-      <c r="AB66" s="20">
-        <v>2</v>
-      </c>
-      <c r="AC66" s="20"/>
-      <c r="AD66" s="20">
-        <v>3</v>
-      </c>
-      <c r="AE66" s="20"/>
-      <c r="AF66" s="20" t="s">
+      <c r="X99" s="21"/>
+      <c r="Y99" s="21"/>
+      <c r="Z99" s="21"/>
+      <c r="AA99" s="21">
+        <v>3</v>
+      </c>
+      <c r="AB99" s="21"/>
+      <c r="AC99" s="21">
+        <v>2</v>
+      </c>
+      <c r="AD99" s="21"/>
+      <c r="AE99" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF99" s="21"/>
+      <c r="AG99" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AG66" s="20"/>
-      <c r="AH66" s="20"/>
-    </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+      <c r="AH99" s="21"/>
+      <c r="AI99" s="21"/>
+    </row>
+    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
+        <v>8</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
+        <v>9</v>
+      </c>
+      <c r="B101" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33"/>
+      <c r="Q101" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="R101" s="25"/>
+      <c r="S101" s="25"/>
+      <c r="T101" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="U101" s="24"/>
+      <c r="V101" s="24"/>
+      <c r="W101" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="X101" s="26"/>
+      <c r="Y101" s="26"/>
+      <c r="Z101" s="26"/>
+      <c r="AA101" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB101" s="21"/>
+      <c r="AC101" s="21"/>
+      <c r="AD101" s="21"/>
+      <c r="AE101" s="21"/>
+      <c r="AF101" s="21"/>
+      <c r="AG101" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH101" s="24"/>
+      <c r="AI101" s="24"/>
+    </row>
+    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
+        <v>10</v>
+      </c>
+      <c r="B102" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="Q102" s="25"/>
+      <c r="R102" s="25"/>
+      <c r="S102" s="25"/>
+      <c r="T102" s="24"/>
+      <c r="U102" s="24"/>
+      <c r="V102" s="24"/>
+      <c r="W102" s="26"/>
+      <c r="X102" s="26"/>
+      <c r="Y102" s="26"/>
+      <c r="Z102" s="26"/>
+      <c r="AA102" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB102" s="21"/>
+      <c r="AC102" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD102" s="21"/>
+      <c r="AE102" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF102" s="21"/>
+      <c r="AG102" s="24"/>
+      <c r="AH102" s="24"/>
+      <c r="AI102" s="24"/>
+    </row>
+    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
+        <v>11</v>
+      </c>
+      <c r="B103" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" s="33"/>
+      <c r="F103" s="19"/>
+      <c r="Q103" s="23">
+        <v>0</v>
+      </c>
+      <c r="R103" s="23"/>
+      <c r="S103" s="23"/>
+      <c r="T103" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U103" s="21"/>
+      <c r="V103" s="21"/>
+      <c r="W103" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="X103" s="29"/>
+      <c r="Y103" s="29"/>
+      <c r="Z103" s="29"/>
+      <c r="AA103" s="29">
+        <v>4</v>
+      </c>
+      <c r="AB103" s="29"/>
+      <c r="AC103" s="29">
+        <v>3</v>
+      </c>
+      <c r="AD103" s="29"/>
+      <c r="AE103" s="29">
+        <v>3</v>
+      </c>
+      <c r="AF103" s="29"/>
+      <c r="AG103" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH103" s="21"/>
+      <c r="AI103" s="21"/>
+    </row>
+    <row r="104" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
+        <v>12</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="19"/>
+      <c r="Q104" s="30">
+        <v>0</v>
+      </c>
+      <c r="R104" s="30"/>
+      <c r="S104" s="30"/>
+      <c r="T104" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="U104" s="21"/>
+      <c r="V104" s="21"/>
+      <c r="W104" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="X104" s="29"/>
+      <c r="Y104" s="29"/>
+      <c r="Z104" s="29"/>
+      <c r="AA104" s="29">
+        <v>2</v>
+      </c>
+      <c r="AB104" s="29"/>
+      <c r="AC104" s="29">
+        <v>4</v>
+      </c>
+      <c r="AD104" s="29"/>
+      <c r="AE104" s="29">
+        <v>3</v>
+      </c>
+      <c r="AF104" s="29"/>
+      <c r="AG104" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH104" s="21"/>
+      <c r="AI104" s="21"/>
+    </row>
+    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
+        <v>13</v>
+      </c>
+      <c r="B105" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+      <c r="C105" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="Q105" s="30">
+        <v>0</v>
+      </c>
+      <c r="R105" s="30"/>
+      <c r="S105" s="30"/>
+      <c r="T105" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="U105" s="21"/>
+      <c r="V105" s="21"/>
+      <c r="W105" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="X105" s="29"/>
+      <c r="Y105" s="29"/>
+      <c r="Z105" s="29"/>
+      <c r="AA105" s="29">
+        <v>2</v>
+      </c>
+      <c r="AB105" s="29"/>
+      <c r="AC105" s="29">
+        <v>5</v>
+      </c>
+      <c r="AD105" s="29"/>
+      <c r="AE105" s="29">
+        <v>1</v>
+      </c>
+      <c r="AF105" s="29"/>
+      <c r="AG105" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH105" s="21"/>
+      <c r="AI105" s="21"/>
+    </row>
+    <row r="106" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A106" s="5">
+        <v>14</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="Q106" s="30">
+        <v>0</v>
+      </c>
+      <c r="R106" s="30"/>
+      <c r="S106" s="30"/>
+      <c r="T106" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="U106" s="21"/>
+      <c r="V106" s="21"/>
+      <c r="W106" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="X106" s="29"/>
+      <c r="Y106" s="29"/>
+      <c r="Z106" s="29"/>
+      <c r="AA106" s="29">
+        <v>1</v>
+      </c>
+      <c r="AB106" s="29"/>
+      <c r="AC106" s="29">
+        <v>4</v>
+      </c>
+      <c r="AD106" s="29"/>
+      <c r="AE106" s="29">
+        <v>5</v>
+      </c>
+      <c r="AF106" s="29"/>
+      <c r="AG106" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH106" s="21"/>
+      <c r="AI106" s="21"/>
+    </row>
+    <row r="107" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
+        <v>15</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="Q107" s="30">
+        <v>0</v>
+      </c>
+      <c r="R107" s="30"/>
+      <c r="S107" s="30"/>
+      <c r="T107" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D68" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
+      <c r="U107" s="21"/>
+      <c r="V107" s="21"/>
+      <c r="W107" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
+      <c r="X107" s="29"/>
+      <c r="Y107" s="29"/>
+      <c r="Z107" s="29"/>
+      <c r="AA107" s="29">
+        <v>3</v>
+      </c>
+      <c r="AB107" s="29"/>
+      <c r="AC107" s="29">
+        <v>2</v>
+      </c>
+      <c r="AD107" s="29"/>
+      <c r="AE107" s="29">
+        <v>3</v>
+      </c>
+      <c r="AF107" s="29"/>
+      <c r="AG107" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH107" s="21"/>
+      <c r="AI107" s="21"/>
+    </row>
+    <row r="108" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A108" s="5">
+        <v>16</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="Q108" s="2"/>
+    </row>
+    <row r="109" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A109" s="5">
+        <v>17</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+    </row>
+    <row r="110" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A110" s="5">
+        <v>18</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="33"/>
+      <c r="D110" s="33"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="33"/>
+    </row>
+    <row r="111" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A111" s="5">
         <v>19</v>
       </c>
-      <c r="B70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
+      <c r="B111" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+    </row>
+    <row r="112" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
         <v>20</v>
       </c>
-      <c r="B71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
+      <c r="B112" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="5">
         <v>21</v>
       </c>
-      <c r="B72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
+      <c r="B113" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="31"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="5">
         <v>22</v>
       </c>
-      <c r="B73" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="5">
         <v>23</v>
       </c>
-      <c r="B74" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="5">
         <v>24</v>
       </c>
-      <c r="B75" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="5">
         <v>25</v>
       </c>
-      <c r="B76" s="22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
+      <c r="B117" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="10"/>
-    </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="5">
+        <v>26</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
+      <c r="B119" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="5">
         <v>28</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B120" s="32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="5">
+        <v>31</v>
+      </c>
+      <c r="B123" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B80">
-        <f>A79</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
+      <c r="B124" s="35">
+        <f>A123</f>
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="125">
-    <mergeCell ref="AF66:AH66"/>
-    <mergeCell ref="N42:AL43"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AA66"/>
-    <mergeCell ref="AB66:AC66"/>
-    <mergeCell ref="AD66:AE66"/>
-    <mergeCell ref="AF64:AH64"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:Y65"/>
-    <mergeCell ref="Z65:AA65"/>
-    <mergeCell ref="AB65:AC65"/>
-    <mergeCell ref="AD65:AE65"/>
-    <mergeCell ref="AF65:AH65"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V64:Y64"/>
-    <mergeCell ref="Z64:AA64"/>
-    <mergeCell ref="AB64:AC64"/>
-    <mergeCell ref="AD64:AE64"/>
-    <mergeCell ref="AF62:AH62"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="V63:Y63"/>
-    <mergeCell ref="Z63:AA63"/>
-    <mergeCell ref="AB63:AC63"/>
-    <mergeCell ref="AD63:AE63"/>
-    <mergeCell ref="AF63:AH63"/>
-    <mergeCell ref="AF60:AH61"/>
-    <mergeCell ref="Z61:AA61"/>
-    <mergeCell ref="AB61:AC61"/>
-    <mergeCell ref="AD61:AE61"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:Y62"/>
-    <mergeCell ref="Z62:AA62"/>
-    <mergeCell ref="AB62:AC62"/>
-    <mergeCell ref="AD62:AE62"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="P60:R61"/>
-    <mergeCell ref="S60:U61"/>
-    <mergeCell ref="V60:Y61"/>
-    <mergeCell ref="Z60:AE60"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P52:R53"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="V58:Y58"/>
-    <mergeCell ref="Z58:AA58"/>
-    <mergeCell ref="AB58:AC58"/>
-    <mergeCell ref="AD58:AE58"/>
-    <mergeCell ref="AF58:AH58"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:Y57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AC57"/>
-    <mergeCell ref="AD57:AE57"/>
-    <mergeCell ref="AF57:AH57"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:Y56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="AB56:AC56"/>
-    <mergeCell ref="AD56:AE56"/>
-    <mergeCell ref="AF56:AH56"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:Y55"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="AB55:AC55"/>
-    <mergeCell ref="AD55:AE55"/>
-    <mergeCell ref="AF55:AH55"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:Y54"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="AD54:AE54"/>
-    <mergeCell ref="AF54:AH54"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S52:U53"/>
-    <mergeCell ref="V52:Y53"/>
-    <mergeCell ref="Z52:AE52"/>
-    <mergeCell ref="AF52:AH53"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="AD53:AE53"/>
+  <mergeCells count="168">
+    <mergeCell ref="Q93:S94"/>
+    <mergeCell ref="Q95:S95"/>
+    <mergeCell ref="Q96:S96"/>
+    <mergeCell ref="Q97:S97"/>
+    <mergeCell ref="Q98:S98"/>
+    <mergeCell ref="Q99:S99"/>
+    <mergeCell ref="W93:Z94"/>
+    <mergeCell ref="AA93:AF93"/>
+    <mergeCell ref="AG93:AI94"/>
+    <mergeCell ref="AA94:AB94"/>
+    <mergeCell ref="AC94:AD94"/>
+    <mergeCell ref="AE94:AF94"/>
+    <mergeCell ref="W95:Z95"/>
+    <mergeCell ref="AA95:AB95"/>
+    <mergeCell ref="AC95:AD95"/>
+    <mergeCell ref="AE95:AF95"/>
+    <mergeCell ref="AG95:AI95"/>
+    <mergeCell ref="W96:Z96"/>
+    <mergeCell ref="AA96:AB96"/>
+    <mergeCell ref="AC96:AD96"/>
+    <mergeCell ref="AE96:AF96"/>
+    <mergeCell ref="AG96:AI96"/>
+    <mergeCell ref="W97:Z97"/>
+    <mergeCell ref="AA97:AB97"/>
+    <mergeCell ref="T98:V98"/>
+    <mergeCell ref="T99:V99"/>
+    <mergeCell ref="W98:Z98"/>
+    <mergeCell ref="AA98:AB98"/>
+    <mergeCell ref="AC98:AD98"/>
+    <mergeCell ref="AE98:AF98"/>
+    <mergeCell ref="AG98:AI98"/>
+    <mergeCell ref="W99:Z99"/>
+    <mergeCell ref="AA99:AB99"/>
+    <mergeCell ref="AC99:AD99"/>
+    <mergeCell ref="AE99:AF99"/>
+    <mergeCell ref="AG99:AI99"/>
+    <mergeCell ref="T96:V96"/>
+    <mergeCell ref="T97:V97"/>
+    <mergeCell ref="AC97:AD97"/>
+    <mergeCell ref="AE97:AF97"/>
+    <mergeCell ref="AG97:AI97"/>
+    <mergeCell ref="T93:V94"/>
+    <mergeCell ref="T95:V95"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="Z11:AE11"/>
+    <mergeCell ref="Z13:AA13"/>
     <mergeCell ref="AD13:AE13"/>
     <mergeCell ref="AD14:AE14"/>
     <mergeCell ref="AD15:AE15"/>
@@ -2973,17 +4053,97 @@
     <mergeCell ref="V14:Y14"/>
     <mergeCell ref="V15:Y15"/>
     <mergeCell ref="V16:Y16"/>
+    <mergeCell ref="AD56:AE56"/>
+    <mergeCell ref="AF56:AH56"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:Y55"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="AB55:AC55"/>
+    <mergeCell ref="AD55:AE55"/>
+    <mergeCell ref="AF55:AH55"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S53:U54"/>
+    <mergeCell ref="V53:Y54"/>
+    <mergeCell ref="Z53:AE53"/>
+    <mergeCell ref="AF53:AH54"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="AD54:AE54"/>
     <mergeCell ref="V17:Y17"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="Z11:AE11"/>
-    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AF59:AH59"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:Y58"/>
+    <mergeCell ref="Z58:AA58"/>
+    <mergeCell ref="AB58:AC58"/>
+    <mergeCell ref="AD58:AE58"/>
+    <mergeCell ref="AF58:AH58"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:Y57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AC57"/>
+    <mergeCell ref="AD57:AE57"/>
+    <mergeCell ref="AF57:AH57"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="P53:R54"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:Y59"/>
+    <mergeCell ref="Z59:AA59"/>
+    <mergeCell ref="AB59:AC59"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:Y56"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="AB56:AC56"/>
+    <mergeCell ref="Q103:S103"/>
+    <mergeCell ref="T103:V103"/>
+    <mergeCell ref="W103:Z103"/>
+    <mergeCell ref="AA103:AB103"/>
+    <mergeCell ref="AC103:AD103"/>
+    <mergeCell ref="AE103:AF103"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="Q101:S102"/>
+    <mergeCell ref="T101:V102"/>
+    <mergeCell ref="W101:Z102"/>
+    <mergeCell ref="AA101:AF101"/>
+    <mergeCell ref="AD59:AE59"/>
+    <mergeCell ref="T104:V104"/>
+    <mergeCell ref="W104:Z104"/>
+    <mergeCell ref="AA104:AB104"/>
+    <mergeCell ref="AC104:AD104"/>
+    <mergeCell ref="AE104:AF104"/>
+    <mergeCell ref="AG104:AI104"/>
+    <mergeCell ref="AG101:AI102"/>
+    <mergeCell ref="AA102:AB102"/>
+    <mergeCell ref="AC102:AD102"/>
+    <mergeCell ref="AE102:AF102"/>
+    <mergeCell ref="AG107:AI107"/>
+    <mergeCell ref="N43:AL44"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="T107:V107"/>
+    <mergeCell ref="W107:Z107"/>
+    <mergeCell ref="AA107:AB107"/>
+    <mergeCell ref="AC107:AD107"/>
+    <mergeCell ref="AE107:AF107"/>
+    <mergeCell ref="AG105:AI105"/>
+    <mergeCell ref="Q106:S106"/>
+    <mergeCell ref="T106:V106"/>
+    <mergeCell ref="W106:Z106"/>
+    <mergeCell ref="AA106:AB106"/>
+    <mergeCell ref="AC106:AD106"/>
+    <mergeCell ref="AE106:AF106"/>
+    <mergeCell ref="AG106:AI106"/>
+    <mergeCell ref="Q105:S105"/>
+    <mergeCell ref="T105:V105"/>
+    <mergeCell ref="W105:Z105"/>
+    <mergeCell ref="AA105:AB105"/>
+    <mergeCell ref="AC105:AD105"/>
+    <mergeCell ref="AE105:AF105"/>
+    <mergeCell ref="AG103:AI103"/>
+    <mergeCell ref="Q104:S104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
